--- a/data/trans_orig/P45D-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P45D-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>28594</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18124</v>
+        <v>19884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41216</v>
+        <v>41722</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05069449775208185</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03213285730431073</v>
+        <v>0.03525152399263169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07307272930185552</v>
+        <v>0.07396960005901089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -764,19 +764,19 @@
         <v>13555</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7277</v>
+        <v>7305</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22561</v>
+        <v>23971</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01497936748382859</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008041234756205565</v>
+        <v>0.008072501939060752</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02493149845057875</v>
+        <v>0.02649009988463288</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -785,19 +785,19 @@
         <v>42149</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30458</v>
+        <v>31181</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57922</v>
+        <v>58844</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0286932622418061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02073447011822521</v>
+        <v>0.02122687228588932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03943070937744163</v>
+        <v>0.04005887725980976</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>52146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38930</v>
+        <v>40188</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65204</v>
+        <v>68851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09245039728500117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06901898233167038</v>
+        <v>0.07124887042496422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1156003986044298</v>
+        <v>0.1220653375008022</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -835,19 +835,19 @@
         <v>42302</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30704</v>
+        <v>30574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58449</v>
+        <v>57064</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04674810949011855</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03393056278076394</v>
+        <v>0.0337874546989171</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06459124693323932</v>
+        <v>0.06306056390112894</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -856,19 +856,19 @@
         <v>94449</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75930</v>
+        <v>76586</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112351</v>
+        <v>117396</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06429687272604426</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05169035489957052</v>
+        <v>0.05213655103022369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07648396765329202</v>
+        <v>0.07991804350608822</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>88615</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71571</v>
+        <v>71337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106842</v>
+        <v>105896</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1571060477711727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1268884492344608</v>
+        <v>0.1264727143790702</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1894200071827027</v>
+        <v>0.187742934601977</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -906,19 +906,19 @@
         <v>74103</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58271</v>
+        <v>59682</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>92389</v>
+        <v>93282</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08189045228153798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06439483669879099</v>
+        <v>0.06595383239284792</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1020978175028184</v>
+        <v>0.1030850162084361</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>155</v>
@@ -927,19 +927,19 @@
         <v>162718</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>138884</v>
+        <v>140605</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>188082</v>
+        <v>188561</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1107717346107906</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09454626844953092</v>
+        <v>0.09571782726655388</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1280382006883783</v>
+        <v>0.1283642340799001</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>174686</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153798</v>
+        <v>154237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>197472</v>
+        <v>198681</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3097013647587811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2726692016351814</v>
+        <v>0.2734473613836302</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3500979353392458</v>
+        <v>0.3522417677259935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>344</v>
@@ -977,19 +977,19 @@
         <v>351053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>319714</v>
+        <v>321357</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>378910</v>
+        <v>379377</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3879456972959675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3533138348686589</v>
+        <v>0.3551287653478725</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4187300596657505</v>
+        <v>0.4192464282213838</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>519</v>
@@ -998,19 +998,19 @@
         <v>525739</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>490001</v>
+        <v>488868</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>562158</v>
+        <v>562443</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3579014405968122</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3335724464832871</v>
+        <v>0.3328013569456849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3826937648624011</v>
+        <v>0.3828878122131499</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>128479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110937</v>
+        <v>108318</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148800</v>
+        <v>150012</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2277799680532637</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1966795546488201</v>
+        <v>0.1920375939382432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2638083729819454</v>
+        <v>0.2659564234287879</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>219</v>
@@ -1048,19 +1048,19 @@
         <v>230358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>206352</v>
+        <v>205069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>256966</v>
+        <v>259111</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2545672589739967</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2280374961490878</v>
+        <v>0.2266202978002947</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2839711435335737</v>
+        <v>0.2863410244154154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>343</v>
@@ -1069,19 +1069,19 @@
         <v>358837</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>324945</v>
+        <v>324212</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>393741</v>
+        <v>391061</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2442814757280988</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2212089616727292</v>
+        <v>0.2207099008892498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.268042901405037</v>
+        <v>0.2662183909203131</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>91527</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>76000</v>
+        <v>76152</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>109263</v>
+        <v>110607</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1622677243796995</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1347414071454228</v>
+        <v>0.1350094539716552</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1937121256294438</v>
+        <v>0.1960950639964928</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>186</v>
@@ -1119,19 +1119,19 @@
         <v>193531</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>170149</v>
+        <v>167886</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>220286</v>
+        <v>220586</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2138691144745507</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.18803044770066</v>
+        <v>0.1855296889184621</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2434358430480909</v>
+        <v>0.2437676251687869</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>278</v>
@@ -1140,19 +1140,19 @@
         <v>285057</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>256941</v>
+        <v>255378</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>315523</v>
+        <v>316161</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1940552140964479</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1749150258907451</v>
+        <v>0.1738507341562509</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2147950478544606</v>
+        <v>0.2152296298578905</v>
       </c>
     </row>
     <row r="10">
@@ -1244,19 +1244,19 @@
         <v>17034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10189</v>
+        <v>10235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26197</v>
+        <v>26273</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01613476455386505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009651434883321092</v>
+        <v>0.009695311346796935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02481448236482746</v>
+        <v>0.02488611012529279</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1265,19 +1265,19 @@
         <v>13673</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7458</v>
+        <v>7403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23071</v>
+        <v>23347</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01312459495983296</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007158887199259876</v>
+        <v>0.007106470236659502</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02214570686453692</v>
+        <v>0.02241052680402676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -1286,19 +1286,19 @@
         <v>30707</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21862</v>
+        <v>20526</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42552</v>
+        <v>42655</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01463966635089728</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01042270113309797</v>
+        <v>0.009785787294193602</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02028705572313271</v>
+        <v>0.02033606383631855</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>88415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72568</v>
+        <v>71167</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108070</v>
+        <v>107163</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08374926726954737</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06873813765984672</v>
+        <v>0.06741099467551408</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.102366631672103</v>
+        <v>0.1015074894400554</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -1336,19 +1336,19 @@
         <v>44783</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33150</v>
+        <v>32890</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59692</v>
+        <v>59334</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04298667120615463</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03181987462276371</v>
+        <v>0.03157081204679271</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05729774744150198</v>
+        <v>0.05695342337396664</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>129</v>
@@ -1357,19 +1357,19 @@
         <v>133198</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>111286</v>
+        <v>110834</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154656</v>
+        <v>155737</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06350320397679929</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05305633747480756</v>
+        <v>0.05284090107330665</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07373341454364717</v>
+        <v>0.07424852883992107</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>180785</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155382</v>
+        <v>157828</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206275</v>
+        <v>207121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1712447946015907</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1471821971217842</v>
+        <v>0.1494988924972448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1953894536681512</v>
+        <v>0.1961907271923064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1407,19 +1407,19 @@
         <v>77765</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60945</v>
+        <v>62259</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96883</v>
+        <v>98319</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07464500311311523</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05850020410337245</v>
+        <v>0.05976150042091206</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09299639889338308</v>
+        <v>0.09437490307662358</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>250</v>
@@ -1428,19 +1428,19 @@
         <v>258550</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>228000</v>
+        <v>228863</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>288838</v>
+        <v>292355</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1232653801035446</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1087006286951487</v>
+        <v>0.1091121229200654</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1377055177819584</v>
+        <v>0.1393821041837353</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>404770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>372947</v>
+        <v>376551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>436124</v>
+        <v>439151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3834092980856138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3532657725451911</v>
+        <v>0.3566797886505327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4131087004595811</v>
+        <v>0.4159757414234187</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1478,19 +1478,19 @@
         <v>367450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337110</v>
+        <v>335702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>398462</v>
+        <v>399416</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3527087781631111</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3235859968727345</v>
+        <v>0.322234214594201</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.382476666185832</v>
+        <v>0.3833925929443522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>756</v>
@@ -1499,19 +1499,19 @@
         <v>772220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>730731</v>
+        <v>731160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>819583</v>
+        <v>817081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3681608907343101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3483806890125777</v>
+        <v>0.3485855857410707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3907415071030159</v>
+        <v>0.3895490284495436</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>220663</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>195675</v>
+        <v>194682</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>248401</v>
+        <v>246820</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2090183196930272</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1853492369216942</v>
+        <v>0.1844081144675725</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2352922137935568</v>
+        <v>0.233794662576456</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>295</v>
@@ -1549,19 +1549,19 @@
         <v>298402</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>267364</v>
+        <v>268270</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>328221</v>
+        <v>325242</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2864313228119474</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2566385384665208</v>
+        <v>0.2575075535994577</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3150534757386731</v>
+        <v>0.3121937952152101</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>517</v>
@@ -1570,19 +1570,19 @@
         <v>519066</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>477633</v>
+        <v>479218</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>555690</v>
+        <v>554937</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2474679944485294</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2277145743486726</v>
+        <v>0.2284705854731145</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2649289232458533</v>
+        <v>0.2645697697824435</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1599,19 @@
         <v>144045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122393</v>
+        <v>121752</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167181</v>
+        <v>168233</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1364435557963558</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1159344971000932</v>
+        <v>0.115327268291615</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1583587644814531</v>
+        <v>0.1593554148734923</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>228</v>
@@ -1620,19 +1620,19 @@
         <v>239721</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>213933</v>
+        <v>213991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>271220</v>
+        <v>270507</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2301036297458386</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2053503456681473</v>
+        <v>0.2054061478110376</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2603398214873325</v>
+        <v>0.2596545691144079</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>363</v>
@@ -1641,19 +1641,19 @@
         <v>383766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>349482</v>
+        <v>350170</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>419895</v>
+        <v>427043</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1829628643859194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1666179590495888</v>
+        <v>0.1669456538100901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2001875358322674</v>
+        <v>0.2035957637171882</v>
       </c>
     </row>
     <row r="17">
@@ -1745,19 +1745,19 @@
         <v>32036</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21548</v>
+        <v>22188</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44729</v>
+        <v>44389</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02943875435633326</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01980045806193928</v>
+        <v>0.02038905327270265</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04110244984521415</v>
+        <v>0.04079024551775557</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1766,19 +1766,19 @@
         <v>6224</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2094</v>
+        <v>2537</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13870</v>
+        <v>14402</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006371334831555192</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002143612690423515</v>
+        <v>0.002596709954488292</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01419936280722844</v>
+        <v>0.01474388258044653</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -1787,19 +1787,19 @@
         <v>38260</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27437</v>
+        <v>27287</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52032</v>
+        <v>52371</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0185273489433103</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01328654713012388</v>
+        <v>0.01321362050106977</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02519671345947759</v>
+        <v>0.02536044489760916</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>84373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66930</v>
+        <v>67738</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101426</v>
+        <v>103824</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07753244071015963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06150336338604693</v>
+        <v>0.06224621121437021</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09320227762271571</v>
+        <v>0.09540577967083955</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1837,19 +1837,19 @@
         <v>33530</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24101</v>
+        <v>23724</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46418</v>
+        <v>48094</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03432562033411957</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02467280631893973</v>
+        <v>0.02428688618909706</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0475200144629908</v>
+        <v>0.04923553447433443</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>115</v>
@@ -1858,19 +1858,19 @@
         <v>117903</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98070</v>
+        <v>97425</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>139782</v>
+        <v>140778</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05709464821134001</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04749023042510606</v>
+        <v>0.0471782748010581</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06768973731897047</v>
+        <v>0.0681719102372947</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>157581</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134424</v>
+        <v>135562</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180835</v>
+        <v>185083</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1448045250833377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1235253130026307</v>
+        <v>0.124570426881033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1661728215376499</v>
+        <v>0.1700762777196803</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -1908,19 +1908,19 @@
         <v>54055</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39913</v>
+        <v>41064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70891</v>
+        <v>71107</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05533775025695885</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04086054832970476</v>
+        <v>0.0420388839432318</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07257327957960599</v>
+        <v>0.07279534519141613</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>203</v>
@@ -1929,19 +1929,19 @@
         <v>211636</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>185071</v>
+        <v>186965</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>241997</v>
+        <v>242216</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1024847393752894</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08962054064643879</v>
+        <v>0.09053769452772839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.117187039304473</v>
+        <v>0.1172931007216193</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>395998</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>364773</v>
+        <v>365140</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>426940</v>
+        <v>431237</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3638910661466251</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3351979069803797</v>
+        <v>0.335534501598018</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3923238873237032</v>
+        <v>0.396272569720372</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>326</v>
@@ -1979,19 +1979,19 @@
         <v>321937</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>292419</v>
+        <v>291073</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>349973</v>
+        <v>352156</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3295790373531524</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2993607006676727</v>
+        <v>0.2979818320962084</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3582803340488251</v>
+        <v>0.3605148678857885</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>717</v>
@@ -2000,19 +2000,19 @@
         <v>717936</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>673950</v>
+        <v>677738</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>761703</v>
+        <v>762472</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3476607090272802</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3263607971480857</v>
+        <v>0.3281951672021949</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3688551747648978</v>
+        <v>0.369227317607929</v>
       </c>
     </row>
     <row r="22">
@@ -2029,19 +2029,19 @@
         <v>257280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>230483</v>
+        <v>225885</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>287181</v>
+        <v>283642</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2364202542901827</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2117953511720548</v>
+        <v>0.2075703850661086</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2638970082223621</v>
+        <v>0.2606441526469127</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>333</v>
@@ -2050,19 +2050,19 @@
         <v>339360</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>311920</v>
+        <v>309139</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>370099</v>
+        <v>370731</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.347415692892353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.319323731140084</v>
+        <v>0.3164768901526871</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3788844130946896</v>
+        <v>0.3795316581552044</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>587</v>
@@ -2071,19 +2071,19 @@
         <v>596641</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>557038</v>
+        <v>554273</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>638918</v>
+        <v>636641</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2889235795227102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2697459646446854</v>
+        <v>0.268406948823986</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3093965028575799</v>
+        <v>0.308293763395908</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>160964</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>137741</v>
+        <v>137232</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>186135</v>
+        <v>185105</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1479129594133616</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1265730740881992</v>
+        <v>0.1261049791088581</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.171043161382591</v>
+        <v>0.1700964998667417</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>216</v>
@@ -2121,19 +2121,19 @@
         <v>221708</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>196309</v>
+        <v>195616</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>251366</v>
+        <v>251178</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2269705643318609</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2009693510505857</v>
+        <v>0.2002592525756731</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2573329759068551</v>
+        <v>0.2571401374914357</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>376</v>
@@ -2142,19 +2142,19 @@
         <v>382672</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>346000</v>
+        <v>348998</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>419577</v>
+        <v>416798</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1853089749200698</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1675507062718014</v>
+        <v>0.1690025576949005</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.203180364431544</v>
+        <v>0.2018348711571586</v>
       </c>
     </row>
     <row r="24">
@@ -2246,19 +2246,19 @@
         <v>11112</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5555</v>
+        <v>5715</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21730</v>
+        <v>19520</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02603103764565611</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01301367625055997</v>
+        <v>0.01338868795394766</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05090506780619748</v>
+        <v>0.04572834684852203</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8426</v>
+        <v>6361</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004666107971789199</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02580238798318954</v>
+        <v>0.01947906006772199</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2288,19 +2288,19 @@
         <v>12636</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6938</v>
+        <v>6430</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22950</v>
+        <v>22977</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01677082648524203</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009208296758386711</v>
+        <v>0.008534891826242058</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03045983437833948</v>
+        <v>0.03049568723905241</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>23595</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15649</v>
+        <v>15843</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33840</v>
+        <v>34647</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05527304872500048</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03665968881896487</v>
+        <v>0.03711507215924896</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07927311960370087</v>
+        <v>0.0811643340277948</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2338,19 +2338,19 @@
         <v>6982</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2679</v>
+        <v>3174</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13491</v>
+        <v>15329</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02137883710699622</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008202252353410549</v>
+        <v>0.009718326937048275</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04131109940590492</v>
+        <v>0.04693910309960315</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -2359,19 +2359,19 @@
         <v>30576</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21321</v>
+        <v>21088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42687</v>
+        <v>41925</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04058226520782394</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02829871825028149</v>
+        <v>0.02798887052433036</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05665694501712294</v>
+        <v>0.05564496422065026</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>55998</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>42758</v>
+        <v>42260</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>71531</v>
+        <v>70059</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1311825848498869</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1001661579151751</v>
+        <v>0.098998485365125</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1675700697512272</v>
+        <v>0.1641208741090028</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -2409,19 +2409,19 @@
         <v>16426</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10056</v>
+        <v>9804</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26485</v>
+        <v>24892</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05029979993849779</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03079414777730922</v>
+        <v>0.03002218805530094</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08110212360475874</v>
+        <v>0.07622298836760037</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>72</v>
@@ -2430,19 +2430,19 @@
         <v>72424</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>56319</v>
+        <v>54521</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>89343</v>
+        <v>88911</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09612552269451892</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07474906700622366</v>
+        <v>0.07236311283750992</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.118580800789216</v>
+        <v>0.1180071389613143</v>
       </c>
     </row>
     <row r="28">
@@ -2459,19 +2459,19 @@
         <v>135224</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>117631</v>
+        <v>116327</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>155402</v>
+        <v>154888</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3167768300717385</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.275564001203357</v>
+        <v>0.27251009728731</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3640473833267192</v>
+        <v>0.3628417305116157</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>76</v>
@@ -2480,19 +2480,19 @@
         <v>74995</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>60065</v>
+        <v>61366</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>91622</v>
+        <v>91039</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2296516047173688</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1839299234860065</v>
+        <v>0.1879142928126078</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2805640538119882</v>
+        <v>0.278780128257856</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>207</v>
@@ -2501,19 +2501,19 @@
         <v>210219</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>186943</v>
+        <v>186388</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>236390</v>
+        <v>234308</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2790141041233828</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2481204727449546</v>
+        <v>0.2473839517317862</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3137493817412996</v>
+        <v>0.3109860220704098</v>
       </c>
     </row>
     <row r="29">
@@ -2530,19 +2530,19 @@
         <v>87376</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>69778</v>
+        <v>70664</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104449</v>
+        <v>104296</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2046870444312082</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1634625519556948</v>
+        <v>0.1655375547765294</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2446833212568554</v>
+        <v>0.244325401893753</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>104</v>
@@ -2551,19 +2551,19 @@
         <v>105655</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>88757</v>
+        <v>89876</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>120863</v>
+        <v>123021</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3235360369591386</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2717923323595715</v>
+        <v>0.2752196351535502</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3701077093460041</v>
+        <v>0.3767159086298472</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>189</v>
@@ -2572,19 +2572,19 @@
         <v>193030</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>167172</v>
+        <v>171681</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>218762</v>
+        <v>218698</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2561998171765966</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2218800425132629</v>
+        <v>0.2278642694233083</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2903522823598467</v>
+        <v>0.2902678870472843</v>
       </c>
     </row>
     <row r="30">
@@ -2601,19 +2601,19 @@
         <v>113570</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>97113</v>
+        <v>97007</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>134357</v>
+        <v>132693</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2660494542765099</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2274969361324292</v>
+        <v>0.2272489687744892</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3147472648750903</v>
+        <v>0.3108471407258336</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>119</v>
@@ -2622,19 +2622,19 @@
         <v>120981</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>104293</v>
+        <v>103437</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>139663</v>
+        <v>137324</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3704676133062094</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3193680266416867</v>
+        <v>0.3167446674119407</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4276774221184746</v>
+        <v>0.4205153431869857</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>229</v>
@@ -2643,19 +2643,19 @@
         <v>234550</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>207492</v>
+        <v>210750</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>260153</v>
+        <v>259224</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3113074643124357</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2753944885431954</v>
+        <v>0.2797179753201136</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3452892082554266</v>
+        <v>0.3440562900429341</v>
       </c>
     </row>
     <row r="31">
@@ -2747,19 +2747,19 @@
         <v>88776</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>72424</v>
+        <v>69736</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>110817</v>
+        <v>106342</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02831889714276949</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02310266415595951</v>
+        <v>0.02224515337074853</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03534993104128255</v>
+        <v>0.03392250108886986</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -2768,19 +2768,19 @@
         <v>34975</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>23451</v>
+        <v>24556</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>48301</v>
+        <v>49310</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01076141360554756</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007215407563790344</v>
+        <v>0.007555483172079303</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0148616073970194</v>
+        <v>0.01517198262666525</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>115</v>
@@ -2789,19 +2789,19 @@
         <v>123751</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>101449</v>
+        <v>101319</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>147806</v>
+        <v>147090</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01938175750878354</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01588873835673872</v>
+        <v>0.01586846632156112</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02314908950989595</v>
+        <v>0.0230369840424698</v>
       </c>
     </row>
     <row r="33">
@@ -2818,19 +2818,19 @@
         <v>248529</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>217605</v>
+        <v>219610</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>278386</v>
+        <v>279740</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07927913376236274</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06941436565830369</v>
+        <v>0.07005405804218282</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08880326190540253</v>
+        <v>0.0892349453347043</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>122</v>
@@ -2839,19 +2839,19 @@
         <v>127597</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>106762</v>
+        <v>106807</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>149955</v>
+        <v>151429</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03925973858984511</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03284923052256175</v>
+        <v>0.03286287633114805</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04613908223546885</v>
+        <v>0.04659241645531503</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>364</v>
@@ -2860,19 +2860,19 @@
         <v>376126</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>339348</v>
+        <v>339580</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>414055</v>
+        <v>414867</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05890839430153882</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05314816613375199</v>
+        <v>0.05318447535162312</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06484870709516935</v>
+        <v>0.06497594073553316</v>
       </c>
     </row>
     <row r="34">
@@ -2889,19 +2889,19 @@
         <v>482980</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>443510</v>
+        <v>442876</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>526166</v>
+        <v>526229</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1540671484089973</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1414764099337256</v>
+        <v>0.1412743823237342</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1678433536493283</v>
+        <v>0.1678631956745368</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>210</v>
@@ -2910,19 +2910,19 @@
         <v>222348</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>192976</v>
+        <v>194452</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>253816</v>
+        <v>252916</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06841333067496698</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05937589376799022</v>
+        <v>0.05982994695898768</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07809545671232518</v>
+        <v>0.07781844457103088</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>680</v>
@@ -2931,19 +2931,19 @@
         <v>705328</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>651844</v>
+        <v>653616</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>754920</v>
+        <v>758089</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1104674988549967</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.102090880194222</v>
+        <v>0.1023684384288832</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1182344865673788</v>
+        <v>0.1187308287340162</v>
       </c>
     </row>
     <row r="35">
@@ -2960,19 +2960,19 @@
         <v>1110678</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1057609</v>
+        <v>1061088</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1164687</v>
+        <v>1172060</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3542983878241511</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3373698956626215</v>
+        <v>0.3384796494238087</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3715269831749094</v>
+        <v>0.3738788430793409</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1107</v>
@@ -2981,19 +2981,19 @@
         <v>1115436</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1061671</v>
+        <v>1063729</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1166186</v>
+        <v>1172586</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3432033574044698</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.326660788074061</v>
+        <v>0.3272940189509488</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3588184048643832</v>
+        <v>0.3607876141598874</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2199</v>
@@ -3002,19 +3002,19 @@
         <v>2226114</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2143840</v>
+        <v>2154400</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2301145</v>
+        <v>2303379</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3486507768841323</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3357651654433052</v>
+        <v>0.3374190268569726</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3604020150703122</v>
+        <v>0.3607519502757323</v>
       </c>
     </row>
     <row r="36">
@@ -3031,19 +3031,19 @@
         <v>693798</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>650057</v>
+        <v>643736</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>740995</v>
+        <v>738516</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2213165306902217</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2073635537262753</v>
+        <v>0.2053472998099275</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2363721365509699</v>
+        <v>0.2355814517308066</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>951</v>
@@ -3052,19 +3052,19 @@
         <v>973776</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>919187</v>
+        <v>920133</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1024410</v>
+        <v>1026837</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2996167186750364</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2828203875554369</v>
+        <v>0.2831115482226467</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3151960385039613</v>
+        <v>0.3159427567051123</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1636</v>
@@ -3073,19 +3073,19 @@
         <v>1667574</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1600839</v>
+        <v>1592732</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1743806</v>
+        <v>1735653</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2611730233307588</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2507210830623193</v>
+        <v>0.249451380499834</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2731124300200206</v>
+        <v>0.2718356027221885</v>
       </c>
     </row>
     <row r="37">
@@ -3102,19 +3102,19 @@
         <v>510105</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>468828</v>
+        <v>470446</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>555687</v>
+        <v>548755</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1627199021714976</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1495526868025406</v>
+        <v>0.1500688404203641</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.177260219399331</v>
+        <v>0.1750488121291991</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>749</v>
@@ -3123,19 +3123,19 @@
         <v>775940</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>732361</v>
+        <v>725329</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>828591</v>
+        <v>825754</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2387454410501342</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2253367443767504</v>
+        <v>0.2231731967935624</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2549455771033021</v>
+        <v>0.2540723995588225</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1246</v>
@@ -3144,19 +3144,19 @@
         <v>1286045</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1223220</v>
+        <v>1223541</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1353571</v>
+        <v>1352966</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2014185491197898</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1915789659633809</v>
+        <v>0.1916292703234309</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2119944107688968</v>
+        <v>0.2118996062099445</v>
       </c>
     </row>
     <row r="38">
@@ -3488,19 +3488,19 @@
         <v>70828</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54578</v>
+        <v>55632</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88812</v>
+        <v>90172</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06877586745288862</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05299697150532817</v>
+        <v>0.05402048879247781</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08623917883973441</v>
+        <v>0.08755999554048102</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -3509,19 +3509,19 @@
         <v>41315</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30110</v>
+        <v>29978</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55732</v>
+        <v>56551</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03756478430602601</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02737629328114088</v>
+        <v>0.02725684507562867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05067262977871152</v>
+        <v>0.05141772463960005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -3530,19 +3530,19 @@
         <v>112143</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93201</v>
+        <v>93680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134047</v>
+        <v>138398</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05265736046409914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0437630815192397</v>
+        <v>0.0439878424204428</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06294258694776894</v>
+        <v>0.0649856870053386</v>
       </c>
     </row>
     <row r="5">
@@ -3559,19 +3559,19 @@
         <v>140059</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117380</v>
+        <v>118179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164052</v>
+        <v>163198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1360014375069843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.113979904957111</v>
+        <v>0.1147549462364586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1592989300991805</v>
+        <v>0.1584697523771067</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -3580,19 +3580,19 @@
         <v>87024</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69575</v>
+        <v>70723</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108019</v>
+        <v>108819</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07912454650971146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06325888484599307</v>
+        <v>0.06430267359491512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09821314338191339</v>
+        <v>0.09894109331025186</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>209</v>
@@ -3601,19 +3601,19 @@
         <v>227083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>199155</v>
+        <v>198139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256432</v>
+        <v>256180</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1066281997783759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09351422651579593</v>
+        <v>0.09303733823577562</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1204088959686534</v>
+        <v>0.1202905297049782</v>
       </c>
     </row>
     <row r="6">
@@ -3630,19 +3630,19 @@
         <v>141045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120275</v>
+        <v>120522</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>165698</v>
+        <v>166556</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1369587362905003</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1167904736836115</v>
+        <v>0.1170306010273903</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1608978045092896</v>
+        <v>0.1617304715721586</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>104</v>
@@ -3651,19 +3651,19 @@
         <v>116343</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94910</v>
+        <v>97564</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137398</v>
+        <v>140336</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1057815527508155</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08629485676525024</v>
+        <v>0.08870756811435698</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1249255752584343</v>
+        <v>0.1275970433441817</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>235</v>
@@ -3672,19 +3672,19 @@
         <v>257388</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>226745</v>
+        <v>228477</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>290742</v>
+        <v>292702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1208577362575778</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1064692337777194</v>
+        <v>0.1072825798911258</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1365192756677448</v>
+        <v>0.1374399203903993</v>
       </c>
     </row>
     <row r="7">
@@ -3701,19 +3701,19 @@
         <v>230782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>203784</v>
+        <v>202726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>260588</v>
+        <v>259736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2240959700533056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1978799357641484</v>
+        <v>0.1968533153335878</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2530384107298848</v>
+        <v>0.2522117466396999</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>169</v>
@@ -3722,19 +3722,19 @@
         <v>180172</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>155566</v>
+        <v>153969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>205637</v>
+        <v>205488</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.16381714366577</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.141444486193827</v>
+        <v>0.1399924648098353</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1869699597838193</v>
+        <v>0.1868345234972986</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>386</v>
@@ -3743,19 +3743,19 @@
         <v>410954</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373338</v>
+        <v>377307</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>449855</v>
+        <v>449943</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1929658525936946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1753027637165971</v>
+        <v>0.1771666216107534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.211231644285729</v>
+        <v>0.2112734090082718</v>
       </c>
     </row>
     <row r="8">
@@ -3772,19 +3772,19 @@
         <v>158976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137390</v>
+        <v>134908</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>183347</v>
+        <v>184833</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1543702652266626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1334093944852386</v>
+        <v>0.1309995569534383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1780353371295728</v>
+        <v>0.1794779282610353</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>249</v>
@@ -3793,19 +3793,19 @@
         <v>268341</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>238924</v>
+        <v>240675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>297551</v>
+        <v>299822</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2439824950439891</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2172349942387321</v>
+        <v>0.2188275194218897</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2705401979571205</v>
+        <v>0.2726053778500362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>399</v>
@@ -3814,19 +3814,19 @@
         <v>427317</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>393817</v>
+        <v>384721</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>468063</v>
+        <v>463549</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2006491894727371</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1849187463286372</v>
+        <v>0.1806476175695688</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2197817307274544</v>
+        <v>0.2176617567592735</v>
       </c>
     </row>
     <row r="9">
@@ -3843,19 +3843,19 @@
         <v>288145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>259425</v>
+        <v>258758</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>319123</v>
+        <v>314816</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2797977234696584</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2519089275526672</v>
+        <v>0.2512619398725197</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3098773490167913</v>
+        <v>0.3056951360235573</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>371</v>
@@ -3864,19 +3864,19 @@
         <v>406643</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>373587</v>
+        <v>373817</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>439722</v>
+        <v>442354</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.369729477723688</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3396743359448753</v>
+        <v>0.3398835584987543</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3998055856116934</v>
+        <v>0.4021992468596809</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>643</v>
@@ -3885,19 +3885,19 @@
         <v>694788</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>647133</v>
+        <v>653581</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>737967</v>
+        <v>741739</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3262416614335155</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3038649845814821</v>
+        <v>0.3068923297510122</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3465164445270552</v>
+        <v>0.3482873957085927</v>
       </c>
     </row>
     <row r="10">
@@ -3989,19 +3989,19 @@
         <v>49565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37020</v>
+        <v>36525</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65243</v>
+        <v>64409</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05154721630406933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03849983052010986</v>
+        <v>0.03798526725720201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0678511035151156</v>
+        <v>0.06698456902131809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -4010,19 +4010,19 @@
         <v>28600</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19370</v>
+        <v>19910</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40672</v>
+        <v>41013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02713251720887965</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01837645830425112</v>
+        <v>0.01888823785099568</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03858586036001157</v>
+        <v>0.03890874367561023</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -4031,19 +4031,19 @@
         <v>78165</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>63560</v>
+        <v>62043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98732</v>
+        <v>97539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03877953130384551</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03153363268635793</v>
+        <v>0.03078089458681314</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0489834052476548</v>
+        <v>0.04839108699291247</v>
       </c>
     </row>
     <row r="12">
@@ -4060,19 +4060,19 @@
         <v>123331</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>104207</v>
+        <v>100336</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149024</v>
+        <v>143588</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1282621516976655</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1083736957145912</v>
+        <v>0.1043479950017977</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1549823899204036</v>
+        <v>0.1493294336325208</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>93</v>
@@ -4081,19 +4081,19 @@
         <v>97480</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>80658</v>
+        <v>80574</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116858</v>
+        <v>117457</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09247872282529081</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07652002076963364</v>
+        <v>0.07644082370072759</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1108632471270845</v>
+        <v>0.1114316548274512</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>210</v>
@@ -4102,19 +4102,19 @@
         <v>220811</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>196024</v>
+        <v>195619</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>252680</v>
+        <v>254638</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1095491810282703</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0972520647036241</v>
+        <v>0.09705078543181972</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1253604795401751</v>
+        <v>0.1263314629592776</v>
       </c>
     </row>
     <row r="13">
@@ -4131,19 +4131,19 @@
         <v>157963</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135379</v>
+        <v>133967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>184421</v>
+        <v>182358</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1642787001033896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1407912754042045</v>
+        <v>0.1393237921136308</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1917944392031341</v>
+        <v>0.1896490953753828</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -4152,19 +4152,19 @@
         <v>101075</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82118</v>
+        <v>81425</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123260</v>
+        <v>123899</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09588933901053298</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07790523977545913</v>
+        <v>0.07724802869000509</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1169365858754998</v>
+        <v>0.1175431057579725</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -4173,19 +4173,19 @@
         <v>259038</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>230429</v>
+        <v>230506</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>292408</v>
+        <v>291045</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1285144329954574</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1143211463867892</v>
+        <v>0.1143594380173522</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1450702647966562</v>
+        <v>0.1443937887592248</v>
       </c>
     </row>
     <row r="14">
@@ -4202,19 +4202,19 @@
         <v>277014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>247214</v>
+        <v>248349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307360</v>
+        <v>306866</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2880891763247464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2570980268258275</v>
+        <v>0.2582781417602182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.319648615405416</v>
+        <v>0.3191352668459654</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -4223,19 +4223,19 @@
         <v>304684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274914</v>
+        <v>276803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333364</v>
+        <v>337005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2890526929978919</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2608099540588388</v>
+        <v>0.2626022424318506</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3162615827981193</v>
+        <v>0.3197155772646353</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>555</v>
@@ -4244,19 +4244,19 @@
         <v>581697</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>542362</v>
+        <v>539592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>630554</v>
+        <v>623700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2885930480836086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2690781805472782</v>
+        <v>0.2677038688897262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3128321994401355</v>
+        <v>0.3094314738970765</v>
       </c>
     </row>
     <row r="15">
@@ -4273,19 +4273,19 @@
         <v>208568</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>183957</v>
+        <v>182635</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>237111</v>
+        <v>234622</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2169072464270203</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1913118211772087</v>
+        <v>0.1899373445638977</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2465915963053494</v>
+        <v>0.2440030550436636</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>248</v>
@@ -4294,19 +4294,19 @@
         <v>265062</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>237552</v>
+        <v>239165</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>295550</v>
+        <v>295329</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2514640180368919</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2253648223032793</v>
+        <v>0.2268954583033616</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2803878527083966</v>
+        <v>0.2801783715848265</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>444</v>
@@ -4315,19 +4315,19 @@
         <v>473630</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>435901</v>
+        <v>434918</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>512305</v>
+        <v>512569</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2349787357711773</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2162604165283555</v>
+        <v>0.2157725219112558</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2541662617460893</v>
+        <v>0.2542970958082491</v>
       </c>
     </row>
     <row r="16">
@@ -4344,19 +4344,19 @@
         <v>145114</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122241</v>
+        <v>122758</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167406</v>
+        <v>173146</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1509155091431088</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1271283228141554</v>
+        <v>0.1276661607630056</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1740987929562273</v>
+        <v>0.1800687111828715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>238</v>
@@ -4365,19 +4365,19 @@
         <v>257176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>231489</v>
+        <v>227439</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>288671</v>
+        <v>287386</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2439827099205126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2196129037515471</v>
+        <v>0.2157706564884325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2738611831327422</v>
+        <v>0.2726427184159884</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>370</v>
@@ -4386,19 +4386,19 @@
         <v>402290</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>365152</v>
+        <v>361490</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>437082</v>
+        <v>439074</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1995850708176409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1811601748195542</v>
+        <v>0.1793432766187997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2168464638169209</v>
+        <v>0.2178345363639273</v>
       </c>
     </row>
     <row r="17">
@@ -4490,19 +4490,19 @@
         <v>39471</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27933</v>
+        <v>28269</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>53710</v>
+        <v>54386</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04528880076613204</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03205082934454873</v>
+        <v>0.03243527741715227</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06162739591145813</v>
+        <v>0.06240238761032697</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -4511,19 +4511,19 @@
         <v>20193</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13081</v>
+        <v>12926</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30396</v>
+        <v>30253</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02359432996153243</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01528435994596757</v>
+        <v>0.01510360320378414</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03551591901006135</v>
+        <v>0.03534866265766422</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -4532,19 +4532,19 @@
         <v>59664</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45911</v>
+        <v>44180</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>74503</v>
+        <v>75702</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03454004103058149</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0265783503751491</v>
+        <v>0.0255760312730635</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04313039517781039</v>
+        <v>0.04382444321108518</v>
       </c>
     </row>
     <row r="19">
@@ -4561,19 +4561,19 @@
         <v>78552</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61591</v>
+        <v>61813</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97099</v>
+        <v>97935</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09013110093624586</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07066892679564477</v>
+        <v>0.07092406764431454</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1114112159949763</v>
+        <v>0.1123704037566079</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -4582,19 +4582,19 @@
         <v>42423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31094</v>
+        <v>29645</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58366</v>
+        <v>58757</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04956841424152662</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03633067443053977</v>
+        <v>0.0346377323467475</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06819627642944237</v>
+        <v>0.06865271450558168</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -4603,19 +4603,19 @@
         <v>120976</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100398</v>
+        <v>102371</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146481</v>
+        <v>145615</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07003387996980907</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05812100511145261</v>
+        <v>0.0592635992480994</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.084799254251142</v>
+        <v>0.08429753200506887</v>
       </c>
     </row>
     <row r="20">
@@ -4632,19 +4632,19 @@
         <v>138703</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>117429</v>
+        <v>117539</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161030</v>
+        <v>162389</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.159147665770168</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1347374928245455</v>
+        <v>0.1348644655275696</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1847653915787811</v>
+        <v>0.1863248238018347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -4653,19 +4653,19 @@
         <v>96158</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78160</v>
+        <v>78185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116906</v>
+        <v>115764</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.112353252072024</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09132399532378506</v>
+        <v>0.09135333852332607</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1365953763172313</v>
+        <v>0.1352617849577849</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>221</v>
@@ -4674,19 +4674,19 @@
         <v>234861</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>207103</v>
+        <v>206853</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>267424</v>
+        <v>264686</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1359628683931025</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1198934752667159</v>
+        <v>0.1197489272918204</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1548138990882016</v>
+        <v>0.1532287867706667</v>
       </c>
     </row>
     <row r="21">
@@ -4703,19 +4703,19 @@
         <v>263291</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>237749</v>
+        <v>236286</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>290489</v>
+        <v>290882</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3021001244671138</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2727928940302901</v>
+        <v>0.2711145203830322</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.33330636954982</v>
+        <v>0.333757563534878</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>239</v>
@@ -4724,19 +4724,19 @@
         <v>255574</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>229699</v>
+        <v>230244</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>285173</v>
+        <v>283726</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2986190883021251</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.268385165451659</v>
+        <v>0.2690230988260312</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3332026018925053</v>
+        <v>0.3315116028538941</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>488</v>
@@ -4745,19 +4745,19 @@
         <v>518865</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>477126</v>
+        <v>479868</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>556160</v>
+        <v>559358</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3003754075240164</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2762120703160886</v>
+        <v>0.2777997395181178</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3219654895568442</v>
+        <v>0.3238165893448702</v>
       </c>
     </row>
     <row r="22">
@@ -4774,19 +4774,19 @@
         <v>220390</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>195358</v>
+        <v>194228</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>247157</v>
+        <v>248979</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.252875135929543</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2241535299559818</v>
+        <v>0.222856554703097</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2835883597615613</v>
+        <v>0.2856786540991455</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>262</v>
@@ -4795,19 +4795,19 @@
         <v>273196</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>245681</v>
+        <v>244741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>300307</v>
+        <v>300734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3192084282731824</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2870589888457063</v>
+        <v>0.2859606099828503</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3508860148030101</v>
+        <v>0.3513851536771209</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>470</v>
@@ -4816,19 +4816,19 @@
         <v>493586</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>459986</v>
+        <v>457924</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>535166</v>
+        <v>533175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2857406816389431</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.266289735124234</v>
+        <v>0.2650958919735706</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3098121962028985</v>
+        <v>0.3086592614115498</v>
       </c>
     </row>
     <row r="23">
@@ -4845,19 +4845,19 @@
         <v>131129</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>110937</v>
+        <v>110889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>155598</v>
+        <v>155657</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1504571721307973</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1272891171410516</v>
+        <v>0.1272341613191931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.178532661528555</v>
+        <v>0.1786008155420697</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>155</v>
@@ -4866,19 +4866,19 @@
         <v>168309</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>146544</v>
+        <v>145080</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>192820</v>
+        <v>192358</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1966564871496095</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1712259984050213</v>
+        <v>0.1695146833920986</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2252952178113455</v>
+        <v>0.224755625230287</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>276</v>
@@ -4887,19 +4887,19 @@
         <v>299438</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>267536</v>
+        <v>270629</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>333619</v>
+        <v>333439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1733471214435475</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1548788715205862</v>
+        <v>0.1566691014933719</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1931348083679679</v>
+        <v>0.193030241671167</v>
       </c>
     </row>
     <row r="24">
@@ -4991,19 +4991,19 @@
         <v>12470</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6359</v>
+        <v>6104</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23478</v>
+        <v>24049</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02499390831130251</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01274506249700362</v>
+        <v>0.01223479823692693</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04705684359039412</v>
+        <v>0.04820055305870057</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -5012,19 +5012,19 @@
         <v>13956</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7569</v>
+        <v>7799</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23541</v>
+        <v>23254</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03143530779556124</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01704846513993344</v>
+        <v>0.017566239435249</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05302367769540654</v>
+        <v>0.0523767480932309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -5033,19 +5033,19 @@
         <v>26427</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17175</v>
+        <v>17466</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39506</v>
+        <v>38971</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0280268464725924</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0182146477647431</v>
+        <v>0.01852392669028577</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04189847903614299</v>
+        <v>0.04133032908740289</v>
       </c>
     </row>
     <row r="26">
@@ -5062,19 +5062,19 @@
         <v>65428</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>51002</v>
+        <v>51790</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81923</v>
+        <v>82599</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1311338250385544</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1022205006406776</v>
+        <v>0.103801025131508</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1641934711274193</v>
+        <v>0.1655502064724163</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -5083,19 +5083,19 @@
         <v>56135</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43440</v>
+        <v>42950</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71226</v>
+        <v>71504</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.126439998292121</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09784362078359252</v>
+        <v>0.09674108410970829</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1604290133498691</v>
+        <v>0.16105661419111</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>115</v>
@@ -5104,19 +5104,19 @@
         <v>121563</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>102097</v>
+        <v>102242</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>143991</v>
+        <v>145695</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1289237329154792</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1082790563903464</v>
+        <v>0.1084327056217082</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.152709325662497</v>
+        <v>0.1545168435868795</v>
       </c>
     </row>
     <row r="27">
@@ -5133,19 +5133,19 @@
         <v>98174</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>79210</v>
+        <v>80037</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>117214</v>
+        <v>117499</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1967651423485092</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1587561936087191</v>
+        <v>0.1604152293177224</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2349271850249412</v>
+        <v>0.2354967944325081</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>57</v>
@@ -5154,19 +5154,19 @@
         <v>61533</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>48936</v>
+        <v>47828</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>77763</v>
+        <v>76960</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1385979120182957</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1102248117465105</v>
+        <v>0.1077274458287443</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.175154612506197</v>
+        <v>0.1733464336218363</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>145</v>
@@ -5175,19 +5175,19 @@
         <v>159707</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>133742</v>
+        <v>136392</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>183821</v>
+        <v>184156</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1693770548628367</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.141839745106166</v>
+        <v>0.1446503493019528</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1949510481597013</v>
+        <v>0.1953064132374209</v>
       </c>
     </row>
     <row r="28">
@@ -5204,19 +5204,19 @@
         <v>145024</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>126834</v>
+        <v>124294</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>170233</v>
+        <v>169800</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2906656749673228</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2542081658798423</v>
+        <v>0.2491166425819679</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3411891480986513</v>
+        <v>0.3403228596868564</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>77</v>
@@ -5225,19 +5225,19 @@
         <v>82284</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>67011</v>
+        <v>65198</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>100793</v>
+        <v>101399</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1853381078807443</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1509370968193449</v>
+        <v>0.1468536130732716</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2270261984728444</v>
+        <v>0.2283909708428357</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>206</v>
@@ -5246,19 +5246,19 @@
         <v>227309</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>200589</v>
+        <v>200363</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>255211</v>
+        <v>257025</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2410721047449867</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2127347549273742</v>
+        <v>0.212494879709174</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2706635982346159</v>
+        <v>0.2725875555563805</v>
       </c>
     </row>
     <row r="29">
@@ -5275,19 +5275,19 @@
         <v>99099</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>80588</v>
+        <v>80146</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>119173</v>
+        <v>120538</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1986197200375138</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1615177971870542</v>
+        <v>0.1606333466336128</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2388528448645929</v>
+        <v>0.2415893260470697</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>112</v>
@@ -5296,19 +5296,19 @@
         <v>127312</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>107272</v>
+        <v>108311</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>148193</v>
+        <v>149483</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2867579414837103</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2416201968049922</v>
+        <v>0.2439618468124581</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3337908187331243</v>
+        <v>0.3366977576829371</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>204</v>
@@ -5317,19 +5317,19 @@
         <v>226411</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>200192</v>
+        <v>200882</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>255247</v>
+        <v>254756</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2401196729507977</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2123131197921768</v>
+        <v>0.2130450692091951</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2707026026864538</v>
+        <v>0.2701815103684523</v>
       </c>
     </row>
     <row r="30">
@@ -5346,19 +5346,19 @@
         <v>78743</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65096</v>
+        <v>61890</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98702</v>
+        <v>96071</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1578217292967974</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1304683097653261</v>
+        <v>0.1240427282069442</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1978242274392475</v>
+        <v>0.1925514635614833</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -5367,19 +5367,19 @@
         <v>102748</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>85262</v>
+        <v>86023</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>124074</v>
+        <v>122959</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2314307325295674</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1920451630035528</v>
+        <v>0.1937594272642155</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2794644715552529</v>
+        <v>0.2769546711174445</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>167</v>
@@ -5388,19 +5388,19 @@
         <v>181491</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>157820</v>
+        <v>159052</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>207965</v>
+        <v>209478</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1924805880533073</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1673758264987578</v>
+        <v>0.1686823904218561</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2205576134902432</v>
+        <v>0.2221623724368736</v>
       </c>
     </row>
     <row r="31">
@@ -5492,19 +5492,19 @@
         <v>172335</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>149498</v>
+        <v>147241</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>200710</v>
+        <v>201965</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0512615906471176</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04446867241559781</v>
+        <v>0.0437973877963957</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05970185214982099</v>
+        <v>0.06007536667409628</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>101</v>
@@ -5513,19 +5513,19 @@
         <v>104065</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>86207</v>
+        <v>85868</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>128062</v>
+        <v>126094</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03013099271309515</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02496051671315994</v>
+        <v>0.02486240087470904</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03707932964897952</v>
+        <v>0.0365093534803804</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>261</v>
@@ -5534,19 +5534,19 @@
         <v>276399</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>242829</v>
+        <v>243293</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>312499</v>
+        <v>311466</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04055387434511975</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03562833147837149</v>
+        <v>0.03569645863321681</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04585051940226733</v>
+        <v>0.045699008963703</v>
       </c>
     </row>
     <row r="33">
@@ -5563,19 +5563,19 @@
         <v>407370</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>371811</v>
+        <v>370266</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>448456</v>
+        <v>447749</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.121173941329169</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1105965440978899</v>
+        <v>0.1101372022615528</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1333951250180234</v>
+        <v>0.1331846174051634</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>263</v>
@@ -5584,19 +5584,19 @@
         <v>283063</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>250165</v>
+        <v>249536</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>318734</v>
+        <v>318247</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08195833300795413</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07243308914170415</v>
+        <v>0.07225093963596282</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0922865998918149</v>
+        <v>0.09214577994727231</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>642</v>
@@ -5605,19 +5605,19 @@
         <v>690433</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>638895</v>
+        <v>643686</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>738635</v>
+        <v>744519</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1013018293413801</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09374006716453133</v>
+        <v>0.09444305993067455</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1083741228007014</v>
+        <v>0.1092374572759608</v>
       </c>
     </row>
     <row r="34">
@@ -5634,19 +5634,19 @@
         <v>535885</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>493214</v>
+        <v>492163</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>581318</v>
+        <v>578189</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1594009910725723</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1467084371847973</v>
+        <v>0.1463959091235023</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1729154417428055</v>
+        <v>0.1719844975475839</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>340</v>
@@ -5655,19 +5655,19 @@
         <v>375108</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>340763</v>
+        <v>340454</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>415614</v>
+        <v>418802</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1086094191461239</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09866505365879782</v>
+        <v>0.09857565051510558</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1203375287278853</v>
+        <v>0.1212604864990543</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>840</v>
@@ -5676,19 +5676,19 @@
         <v>910993</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>855978</v>
+        <v>855447</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>972239</v>
+        <v>976626</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1336628768734822</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1255909145266019</v>
+        <v>0.1255131024383991</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1426489652446828</v>
+        <v>0.1432927288286052</v>
       </c>
     </row>
     <row r="35">
@@ -5705,19 +5705,19 @@
         <v>916111</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>860241</v>
+        <v>863830</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>968856</v>
+        <v>968377</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2725008371297059</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2558821607785036</v>
+        <v>0.2569495401211385</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2881900927580414</v>
+        <v>0.2880474649456619</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>771</v>
@@ -5726,19 +5726,19 @@
         <v>822714</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>774397</v>
+        <v>773130</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>874098</v>
+        <v>878490</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2382099355358497</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2242200165342609</v>
+        <v>0.2238531346295024</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2530875534996797</v>
+        <v>0.2543592331303826</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1635</v>
@@ -5747,19 +5747,19 @@
         <v>1738825</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1664298</v>
+        <v>1664315</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1813971</v>
+        <v>1814465</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.255124270354208</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2441893902446101</v>
+        <v>0.2441919469272605</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2661498020444234</v>
+        <v>0.2662222779090309</v>
       </c>
     </row>
     <row r="36">
@@ -5776,19 +5776,19 @@
         <v>687033</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>640542</v>
+        <v>646551</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>735727</v>
+        <v>743128</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2043606917323567</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1905318171078451</v>
+        <v>0.1923191575639162</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2188447615145107</v>
+        <v>0.2210463495375367</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>871</v>
@@ -5797,19 +5797,19 @@
         <v>933911</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>879606</v>
+        <v>881410</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>981406</v>
+        <v>989782</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2704058897464935</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.254682298307238</v>
+        <v>0.2552047946209293</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2841577983937332</v>
+        <v>0.2865829464690398</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1517</v>
@@ -5818,19 +5818,19 @@
         <v>1620944</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1545149</v>
+        <v>1548829</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1689912</v>
+        <v>1687125</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2378284263252332</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2267077062275087</v>
+        <v>0.2272475500807232</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2479476348648352</v>
+        <v>0.2475385944165951</v>
       </c>
     </row>
     <row r="37">
@@ -5847,19 +5847,19 @@
         <v>643131</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>599870</v>
+        <v>596694</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>692273</v>
+        <v>691523</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1913019480890785</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1784336992611663</v>
+        <v>0.1774888365530469</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2059193684642402</v>
+        <v>0.2056963434873178</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>856</v>
@@ -5868,19 +5868,19 @@
         <v>934876</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>882505</v>
+        <v>883676</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>985321</v>
+        <v>991914</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2706854298504837</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2555216580054284</v>
+        <v>0.2558607733568031</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2852913854561717</v>
+        <v>0.2872002415690585</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1456</v>
@@ -5889,19 +5889,19 @@
         <v>1578008</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1509990</v>
+        <v>1505367</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1650674</v>
+        <v>1646981</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2315287227605767</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2215490906824876</v>
+        <v>0.220870776590941</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2421905169622877</v>
+        <v>0.2416486988100769</v>
       </c>
     </row>
     <row r="38">
@@ -6233,19 +6233,19 @@
         <v>44378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31330</v>
+        <v>32455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58018</v>
+        <v>59278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04002577299954634</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02825779532558436</v>
+        <v>0.02927189131727024</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05232820271775236</v>
+        <v>0.05346431574559614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -6254,19 +6254,19 @@
         <v>26734</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17565</v>
+        <v>17852</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38076</v>
+        <v>38155</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02142344976659229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01407548650924661</v>
+        <v>0.01430620029009536</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03051210051882744</v>
+        <v>0.03057604917214753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -6275,19 +6275,19 @@
         <v>71112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55661</v>
+        <v>56060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89066</v>
+        <v>91125</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03017543410227303</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02361885661875496</v>
+        <v>0.0237883047738287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03779408596623428</v>
+        <v>0.03866763066855858</v>
       </c>
     </row>
     <row r="5">
@@ -6304,19 +6304,19 @@
         <v>99762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82912</v>
+        <v>83428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121499</v>
+        <v>119755</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08997828862153878</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07478016486898521</v>
+        <v>0.07524545943466275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.109583145700258</v>
+        <v>0.1080097888096197</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -6325,19 +6325,19 @@
         <v>56952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43554</v>
+        <v>42341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75755</v>
+        <v>72797</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04563885507004636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03490216734573306</v>
+        <v>0.03392992026368756</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06070689155923781</v>
+        <v>0.05833610061295922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -6346,19 +6346,19 @@
         <v>156714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>133735</v>
+        <v>133942</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>182660</v>
+        <v>185389</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06649958429381198</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05674882693099225</v>
+        <v>0.05683647519124681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07750920737625022</v>
+        <v>0.0786673291308473</v>
       </c>
     </row>
     <row r="6">
@@ -6375,19 +6375,19 @@
         <v>215987</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>192371</v>
+        <v>189250</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>245622</v>
+        <v>244009</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1948043344029483</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1735047690036307</v>
+        <v>0.170689266473317</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2215331490377261</v>
+        <v>0.220078047297988</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -6396,19 +6396,19 @@
         <v>140889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>118250</v>
+        <v>121019</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>163588</v>
+        <v>168044</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1129027309580466</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09476043795922072</v>
+        <v>0.09697924349240165</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1310928124437165</v>
+        <v>0.1346637305581234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>341</v>
@@ -6417,19 +6417,19 @@
         <v>356876</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>322847</v>
+        <v>325068</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>396018</v>
+        <v>393796</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1514356357700166</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1369957660846088</v>
+        <v>0.1379381555994469</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1680450156043318</v>
+        <v>0.1671020897816122</v>
       </c>
     </row>
     <row r="7">
@@ -6446,19 +6446,19 @@
         <v>341553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>309122</v>
+        <v>312187</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>369810</v>
+        <v>372886</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3080553018025694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2788055120774039</v>
+        <v>0.2815697992985566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3335415922829729</v>
+        <v>0.3363157407878271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>375</v>
@@ -6467,19 +6467,19 @@
         <v>392995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>361243</v>
+        <v>363521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>425335</v>
+        <v>426596</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.314929937983583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2894849973360078</v>
+        <v>0.2913104773720002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3408456935041326</v>
+        <v>0.3418561822382268</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>703</v>
@@ -6488,19 +6488,19 @@
         <v>734548</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>689862</v>
+        <v>689458</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>780655</v>
+        <v>780332</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3116955727155315</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2927335716129257</v>
+        <v>0.2925623779359325</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3312605494963329</v>
+        <v>0.3311235538561654</v>
       </c>
     </row>
     <row r="8">
@@ -6517,19 +6517,19 @@
         <v>235224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>207869</v>
+        <v>208623</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>264629</v>
+        <v>263394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2121549886348654</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1874821344543377</v>
+        <v>0.1881628677740586</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2386759457769901</v>
+        <v>0.237562002582791</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>340</v>
@@ -6538,19 +6538,19 @@
         <v>359634</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328477</v>
+        <v>327675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>396289</v>
+        <v>391376</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2881958156790462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.263227623596269</v>
+        <v>0.2625852186848388</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.317569639886172</v>
+        <v>0.3136323182715083</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>562</v>
@@ -6559,19 +6559,19 @@
         <v>594859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>549902</v>
+        <v>552839</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>636352</v>
+        <v>640049</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2524202773858544</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2333437293992187</v>
+        <v>0.2345898338839791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2700274184965794</v>
+        <v>0.2715960713519568</v>
       </c>
     </row>
     <row r="9">
@@ -6588,19 +6588,19 @@
         <v>171834</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>148846</v>
+        <v>147560</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>196870</v>
+        <v>197041</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1549813135385318</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1342479933016278</v>
+        <v>0.1330883463238864</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1775623252347871</v>
+        <v>0.1777163608480455</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>248</v>
@@ -6609,19 +6609,19 @@
         <v>270677</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>244235</v>
+        <v>239630</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>300182</v>
+        <v>300618</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2169092105426854</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1957199168259331</v>
+        <v>0.1920292783800335</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.240552979370954</v>
+        <v>0.2409023554117288</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>405</v>
@@ -6630,19 +6630,19 @@
         <v>442511</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>404910</v>
+        <v>406510</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>483737</v>
+        <v>483310</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1877734957325125</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1718180788703575</v>
+        <v>0.1724971765024026</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2052671073364232</v>
+        <v>0.2050859655626288</v>
       </c>
     </row>
     <row r="10">
@@ -6734,19 +6734,19 @@
         <v>38490</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26844</v>
+        <v>26966</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52866</v>
+        <v>51694</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04251103614967659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02964863369097804</v>
+        <v>0.02978256230821843</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05838816911882339</v>
+        <v>0.0570943009127972</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -6755,19 +6755,19 @@
         <v>20358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12724</v>
+        <v>12736</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31259</v>
+        <v>31118</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02033681592679778</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01271146805062482</v>
+        <v>0.01272303217983795</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03122674384013237</v>
+        <v>0.03108591993798839</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -6776,19 +6776,19 @@
         <v>58848</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45432</v>
+        <v>44338</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76556</v>
+        <v>74864</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03086793649143015</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0238308527856502</v>
+        <v>0.02325688312693544</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04015669480982023</v>
+        <v>0.03926913623033637</v>
       </c>
     </row>
     <row r="12">
@@ -6805,19 +6805,19 @@
         <v>81559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>64496</v>
+        <v>65666</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100120</v>
+        <v>100582</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09007953208082331</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07123326947442603</v>
+        <v>0.07252558642251787</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1105792403532401</v>
+        <v>0.1110895558762848</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -6826,19 +6826,19 @@
         <v>47379</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35922</v>
+        <v>34725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63414</v>
+        <v>62669</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04733041506307147</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03588516154895573</v>
+        <v>0.03468918569198843</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06334938037536809</v>
+        <v>0.06260494966561794</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>122</v>
@@ -6847,19 +6847,19 @@
         <v>128938</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>107561</v>
+        <v>107653</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>152354</v>
+        <v>153635</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06763309541983192</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05641982590367844</v>
+        <v>0.05646814838167972</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07991585842113609</v>
+        <v>0.08058758300271006</v>
       </c>
     </row>
     <row r="13">
@@ -6876,19 +6876,19 @@
         <v>160976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>140469</v>
+        <v>138958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186688</v>
+        <v>185214</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.177791926483888</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1551428702211277</v>
+        <v>0.1534738682191554</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2061904471644795</v>
+        <v>0.2045627173211539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -6897,19 +6897,19 @@
         <v>107247</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87140</v>
+        <v>87779</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126462</v>
+        <v>129613</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1071380318339892</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08705171675783528</v>
+        <v>0.08768917083201727</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1263329094621557</v>
+        <v>0.1294809851264062</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -6918,19 +6918,19 @@
         <v>268223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>238710</v>
+        <v>239318</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>299749</v>
+        <v>300541</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1406934252340787</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1252127067684178</v>
+        <v>0.1255315661816032</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.157230163855102</v>
+        <v>0.157645368031298</v>
       </c>
     </row>
     <row r="14">
@@ -6947,19 +6947,19 @@
         <v>287233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259782</v>
+        <v>260408</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317247</v>
+        <v>316139</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3172388267897799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2869198354433384</v>
+        <v>0.2876110449878582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3503879515713232</v>
+        <v>0.3491647507136899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -6968,19 +6968,19 @@
         <v>331458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>295717</v>
+        <v>302010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>359066</v>
+        <v>362497</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3311208818692465</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2954163907073803</v>
+        <v>0.3017025683293438</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3587004408423668</v>
+        <v>0.362127783619631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>594</v>
@@ -6989,19 +6989,19 @@
         <v>618691</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>577224</v>
+        <v>579340</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>657935</v>
+        <v>661310</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3245279286895045</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3027764800145391</v>
+        <v>0.3038866886624567</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3451126097331481</v>
+        <v>0.3468828339918151</v>
       </c>
     </row>
     <row r="15">
@@ -7018,19 +7018,19 @@
         <v>193448</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>171981</v>
+        <v>171701</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>220529</v>
+        <v>217098</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2136559837935415</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1899472153278605</v>
+        <v>0.189637900698866</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2435664508895967</v>
+        <v>0.2397775999001818</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>265</v>
@@ -7039,19 +7039,19 @@
         <v>278166</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>248377</v>
+        <v>250353</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>306671</v>
+        <v>309533</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2778825861317014</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2481238778677113</v>
+        <v>0.2500984220317963</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.306359269537596</v>
+        <v>0.309218237884306</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>458</v>
@@ -7060,19 +7060,19 @@
         <v>471613</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>433941</v>
+        <v>433293</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>511090</v>
+        <v>512100</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2473796829458662</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2276190704245055</v>
+        <v>0.2272794078034102</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2680867484678598</v>
+        <v>0.2686166774813643</v>
       </c>
     </row>
     <row r="16">
@@ -7089,19 +7089,19 @@
         <v>143710</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124252</v>
+        <v>122388</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167221</v>
+        <v>166386</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1587226947022907</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1372314064966174</v>
+        <v>0.1351729285982054</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1846896191522984</v>
+        <v>0.1837670552649897</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>200</v>
@@ -7110,19 +7110,19 @@
         <v>216412</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>190011</v>
+        <v>191167</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>244252</v>
+        <v>244147</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2161912691751937</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1898177072480654</v>
+        <v>0.1909723176493257</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2440033207194167</v>
+        <v>0.2438983830009057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>336</v>
@@ -7131,19 +7131,19 @@
         <v>360122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>326468</v>
+        <v>325456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>397227</v>
+        <v>394604</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1888979312192886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1712452712408543</v>
+        <v>0.1707143055574581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2083611891392072</v>
+        <v>0.2069853277500459</v>
       </c>
     </row>
     <row r="17">
@@ -7235,19 +7235,19 @@
         <v>43406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31569</v>
+        <v>31881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>57328</v>
+        <v>58714</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05324235325826742</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03872342816366408</v>
+        <v>0.03910563446761357</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07032029484727165</v>
+        <v>0.07201966097504661</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -7256,19 +7256,19 @@
         <v>13948</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8063</v>
+        <v>7812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24100</v>
+        <v>24222</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01816372676702441</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01050023774931615</v>
+        <v>0.01017368655599167</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03138480000409355</v>
+        <v>0.03154260822279984</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>53</v>
@@ -7277,19 +7277,19 @@
         <v>57354</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42532</v>
+        <v>44432</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>74401</v>
+        <v>75631</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0362275853421011</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02686562825402861</v>
+        <v>0.02806569215571695</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04699544567203135</v>
+        <v>0.04777266967752421</v>
       </c>
     </row>
     <row r="19">
@@ -7306,19 +7306,19 @@
         <v>73603</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58010</v>
+        <v>55047</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91836</v>
+        <v>90518</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09028279000418883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07115678919962411</v>
+        <v>0.06752216023536589</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1126476853119985</v>
+        <v>0.1110311550008511</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -7327,19 +7327,19 @@
         <v>37783</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27058</v>
+        <v>25897</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50955</v>
+        <v>51458</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04920284765534845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03523649780749832</v>
+        <v>0.03372477831973586</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06635683098867426</v>
+        <v>0.06701160109090359</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -7348,19 +7348,19 @@
         <v>111385</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91172</v>
+        <v>90766</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>131524</v>
+        <v>135000</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07035710433774746</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05758920741822893</v>
+        <v>0.05733299161602093</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08307743523131161</v>
+        <v>0.08527352399888367</v>
       </c>
     </row>
     <row r="20">
@@ -7377,19 +7377,19 @@
         <v>148130</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123558</v>
+        <v>125982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171961</v>
+        <v>171311</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1817000717680627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1515596416048406</v>
+        <v>0.1545328842723063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2109312955093944</v>
+        <v>0.2101343902819308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -7398,19 +7398,19 @@
         <v>61284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47965</v>
+        <v>47043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76821</v>
+        <v>78235</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07980773722279463</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06246291658120381</v>
+        <v>0.06126220549738673</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1000405339137405</v>
+        <v>0.1018825381824217</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>205</v>
@@ -7419,19 +7419,19 @@
         <v>209415</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>185567</v>
+        <v>183268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>238764</v>
+        <v>239350</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1322775430622451</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1172142408796022</v>
+        <v>0.1157621659548391</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1508159418365325</v>
+        <v>0.1511865251147738</v>
       </c>
     </row>
     <row r="21">
@@ -7448,19 +7448,19 @@
         <v>280038</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>253782</v>
+        <v>253003</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>309458</v>
+        <v>307507</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3435008952290614</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3112943847829617</v>
+        <v>0.3103397788715955</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3795880726861115</v>
+        <v>0.3771954599189873</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>244</v>
@@ -7469,19 +7469,19 @@
         <v>259106</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>232587</v>
+        <v>234176</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>285256</v>
+        <v>287999</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3374223991988738</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3028871043800601</v>
+        <v>0.3049564811629719</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3714755600167886</v>
+        <v>0.3750480429040243</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>516</v>
@@ -7490,19 +7490,19 @@
         <v>539144</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>496482</v>
+        <v>503212</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>575264</v>
+        <v>580973</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3405525414997955</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3136046278574042</v>
+        <v>0.3178559459631072</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3633676987079646</v>
+        <v>0.3669737031247801</v>
       </c>
     </row>
     <row r="22">
@@ -7519,19 +7519,19 @@
         <v>170309</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146913</v>
+        <v>147441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>194331</v>
+        <v>194759</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2089048260651196</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.180207035489036</v>
+        <v>0.1808542660138542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2383707341198875</v>
+        <v>0.2388957678881447</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>206</v>
@@ -7540,19 +7540,19 @@
         <v>218820</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>196358</v>
+        <v>193957</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>245682</v>
+        <v>243288</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2849590907772223</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2557076427002227</v>
+        <v>0.2525820400344599</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3199407065674835</v>
+        <v>0.3168234523330171</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>368</v>
@@ -7561,19 +7561,19 @@
         <v>389129</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>356390</v>
+        <v>358992</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>425642</v>
+        <v>426653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2457946872868567</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2251150171007649</v>
+        <v>0.2267588883447565</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2688586575382552</v>
+        <v>0.2694973496490315</v>
       </c>
     </row>
     <row r="23">
@@ -7590,19 +7590,19 @@
         <v>99761</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>82234</v>
+        <v>81246</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>120423</v>
+        <v>119491</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1223690636753001</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1008698799460468</v>
+        <v>0.09965882549024999</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1477130885442801</v>
+        <v>0.1465704975630129</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>164</v>
@@ -7611,19 +7611,19 @@
         <v>176958</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>152502</v>
+        <v>154962</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>199941</v>
+        <v>204152</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2304441983787364</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1985970662112273</v>
+        <v>0.2017997438158805</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.260374232521174</v>
+        <v>0.2658577322863661</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>257</v>
@@ -7632,19 +7632,19 @@
         <v>276719</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>246401</v>
+        <v>245463</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>310544</v>
+        <v>308100</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1747905384712541</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1556400075592225</v>
+        <v>0.1550476754001794</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1961563736937696</v>
+        <v>0.1946128455572958</v>
       </c>
     </row>
     <row r="24">
@@ -7736,19 +7736,19 @@
         <v>35324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24993</v>
+        <v>24665</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48693</v>
+        <v>50260</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07138617994267547</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0505077399119583</v>
+        <v>0.04984591864301751</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09840385620098718</v>
+        <v>0.1015701475103871</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -7757,19 +7757,19 @@
         <v>16606</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9805</v>
+        <v>9893</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25179</v>
+        <v>26738</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0343798847729342</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0202987351351105</v>
+        <v>0.0204814119644119</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0521288488576068</v>
+        <v>0.05535520321970972</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -7778,19 +7778,19 @@
         <v>51930</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39398</v>
+        <v>38245</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67885</v>
+        <v>67819</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05310648130590784</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0402905396357128</v>
+        <v>0.03911129090843451</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06942219938884459</v>
+        <v>0.06935529697803183</v>
       </c>
     </row>
     <row r="26">
@@ -7807,19 +7807,19 @@
         <v>57304</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43863</v>
+        <v>42793</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72582</v>
+        <v>73097</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1158047551180472</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08864233164591248</v>
+        <v>0.08647933586068411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1466803952660434</v>
+        <v>0.1477216289910753</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -7828,19 +7828,19 @@
         <v>49155</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35983</v>
+        <v>36951</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63327</v>
+        <v>65779</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1017662373416147</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07449552871172453</v>
+        <v>0.07649951324790707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1311063161466022</v>
+        <v>0.1361826808570973</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>96</v>
@@ -7849,19 +7849,19 @@
         <v>106459</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>88304</v>
+        <v>87439</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>129989</v>
+        <v>128971</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1088702626733693</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09030423203986285</v>
+        <v>0.08941981763197794</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1329338259603336</v>
+        <v>0.1318918896901493</v>
       </c>
     </row>
     <row r="27">
@@ -7878,19 +7878,19 @@
         <v>84386</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>69016</v>
+        <v>68143</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>102293</v>
+        <v>103280</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1705354166010925</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1394747916453039</v>
+        <v>0.1377101204951831</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2067236867082577</v>
+        <v>0.208718580355517</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>50</v>
@@ -7899,19 +7899,19 @@
         <v>53181</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>39702</v>
+        <v>40245</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>68590</v>
+        <v>68729</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.110099945181355</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0821942180412349</v>
+        <v>0.08331874644625456</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1420022990890694</v>
+        <v>0.1422896645618382</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>127</v>
@@ -7920,19 +7920,19 @@
         <v>137567</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>114328</v>
+        <v>115608</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>158804</v>
+        <v>161658</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.140682598331754</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1169172350413512</v>
+        <v>0.1182270616206049</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1624014734710942</v>
+        <v>0.1653201440703247</v>
       </c>
     </row>
     <row r="28">
@@ -7949,19 +7949,19 @@
         <v>115771</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>98123</v>
+        <v>96028</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>133741</v>
+        <v>135572</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2339603315268688</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.198296750432349</v>
+        <v>0.1940620401487217</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2702768558916832</v>
+        <v>0.2739764456379737</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>103</v>
@@ -7970,19 +7970,19 @@
         <v>108385</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>89144</v>
+        <v>90939</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>129112</v>
+        <v>128422</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2243907311287336</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1845543121914748</v>
+        <v>0.1882718926461136</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2673000707510408</v>
+        <v>0.265871958441262</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>211</v>
@@ -7991,19 +7991,19 @@
         <v>224156</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>198204</v>
+        <v>195060</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>253466</v>
+        <v>250824</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2292333138519075</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2026934995887557</v>
+        <v>0.1994783643695267</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.259206779758375</v>
+        <v>0.256505701456306</v>
       </c>
     </row>
     <row r="29">
@@ -8020,19 +8020,19 @@
         <v>85064</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68070</v>
+        <v>69545</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>101843</v>
+        <v>104239</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1719054179992635</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.137561808389007</v>
+        <v>0.1405438825025074</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2058136079369166</v>
+        <v>0.2106555523973657</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>97</v>
@@ -8041,19 +8041,19 @@
         <v>104728</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89120</v>
+        <v>87000</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126103</v>
+        <v>123626</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2168195447556159</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1845063152403391</v>
+        <v>0.1801157022363081</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2610715986714552</v>
+        <v>0.255942340020353</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>177</v>
@@ -8062,19 +8062,19 @@
         <v>189792</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>165421</v>
+        <v>165848</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>218523</v>
+        <v>217335</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1940912838870495</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1691679478177527</v>
+        <v>0.1696044909090006</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2234730047609708</v>
+        <v>0.2222575810594624</v>
       </c>
     </row>
     <row r="30">
@@ -8091,19 +8091,19 @@
         <v>116982</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>100063</v>
+        <v>98142</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>136681</v>
+        <v>138521</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2364078988120527</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2022160076512497</v>
+        <v>0.198334139509714</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2762185398127235</v>
+        <v>0.2799357625199398</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>139</v>
@@ -8112,19 +8112,19 @@
         <v>150965</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>128719</v>
+        <v>130658</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>170881</v>
+        <v>171267</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3125436568197466</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2664871945529276</v>
+        <v>0.2705018157282754</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3537746896337651</v>
+        <v>0.354575617313774</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>250</v>
@@ -8133,19 +8133,19 @@
         <v>267947</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>237408</v>
+        <v>241257</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>296659</v>
+        <v>298039</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2740160599500119</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2427850048340994</v>
+        <v>0.2467221029747433</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.303378411151587</v>
+        <v>0.3047894915406186</v>
       </c>
     </row>
     <row r="31">
@@ -8237,19 +8237,19 @@
         <v>161598</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>137497</v>
+        <v>138081</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>188628</v>
+        <v>186995</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04861213100206191</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04136217739673758</v>
+        <v>0.04153769592875892</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05674324954375927</v>
+        <v>0.05625199942633247</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>74</v>
@@ -8258,19 +8258,19 @@
         <v>77646</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>61743</v>
+        <v>61598</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>97410</v>
+        <v>96583</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02218558934274465</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01764170286782726</v>
+        <v>0.01760031376865835</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02783286907505038</v>
+        <v>0.02759660159664448</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>221</v>
@@ -8279,19 +8279,19 @@
         <v>239243</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>208668</v>
+        <v>211855</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>272660</v>
+        <v>276751</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03505886648201131</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03057828157789498</v>
+        <v>0.03104529377172528</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03995568506314411</v>
+        <v>0.0405552128522052</v>
       </c>
     </row>
     <row r="33">
@@ -8308,19 +8308,19 @@
         <v>312228</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>279959</v>
+        <v>280242</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>348319</v>
+        <v>351647</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09392495266844753</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0842175936106118</v>
+        <v>0.08430275452084314</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1047818616839565</v>
+        <v>0.1057831676567325</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>179</v>
@@ -8329,19 +8329,19 @@
         <v>191269</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>164266</v>
+        <v>163904</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>221989</v>
+        <v>218378</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05465096717670186</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04693562516807878</v>
+        <v>0.04683217977618572</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06342871113897118</v>
+        <v>0.06239676673703332</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>472</v>
@@ -8350,19 +8350,19 @@
         <v>503497</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>462532</v>
+        <v>462126</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>551283</v>
+        <v>547385</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07378267597600763</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06777972201703808</v>
+        <v>0.06772018959973468</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08078527469489989</v>
+        <v>0.08021405806666301</v>
       </c>
     </row>
     <row r="34">
@@ -8379,19 +8379,19 @@
         <v>609479</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>563807</v>
+        <v>561298</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>655461</v>
+        <v>651846</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1833443895775492</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1696052524953982</v>
+        <v>0.1688505528900647</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1971768651536922</v>
+        <v>0.1960892540776047</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>346</v>
@@ -8400,19 +8400,19 @@
         <v>362601</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>326953</v>
+        <v>327132</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>402920</v>
+        <v>401825</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1036056861745911</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09341984400682116</v>
+        <v>0.0934711164747878</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1151259598355725</v>
+        <v>0.1148131353340161</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>932</v>
@@ -8421,19 +8421,19 @@
         <v>972080</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>915658</v>
+        <v>915779</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1031391</v>
+        <v>1030686</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1424491504789774</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1341809696186174</v>
+        <v>0.1341987307717772</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1511405717975898</v>
+        <v>0.1510372175535308</v>
       </c>
     </row>
     <row r="35">
@@ -8450,19 +8450,19 @@
         <v>1024594</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>971333</v>
+        <v>973026</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1078869</v>
+        <v>1084503</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3082199663234347</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.292197936417723</v>
+        <v>0.2927072234506981</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3245472704413682</v>
+        <v>0.3262418935707634</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1039</v>
@@ -8471,19 +8471,19 @@
         <v>1091945</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1032607</v>
+        <v>1034421</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1146458</v>
+        <v>1145307</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3120003691130901</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2950457898447347</v>
+        <v>0.2955639746931637</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3275762541910737</v>
+        <v>0.3272473529994157</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2024</v>
@@ -8492,19 +8492,19 @@
         <v>2116539</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2045373</v>
+        <v>2032747</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2196509</v>
+        <v>2201990</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3101588049221838</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2997301005999675</v>
+        <v>0.2978798445265193</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3218775917291369</v>
+        <v>0.3226808437256549</v>
       </c>
     </row>
     <row r="36">
@@ -8521,19 +8521,19 @@
         <v>684044</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>638249</v>
+        <v>638728</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>731228</v>
+        <v>731715</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2057753614200805</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1919991431592645</v>
+        <v>0.1921432733163945</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2199691872325219</v>
+        <v>0.2201156319666223</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>908</v>
@@ -8542,19 +8542,19 @@
         <v>961348</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>909988</v>
+        <v>907368</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1018257</v>
+        <v>1009104</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2746849937040391</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2600099952966994</v>
+        <v>0.2592611214178404</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2909455931858832</v>
+        <v>0.2883302035622942</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1565</v>
@@ -8563,19 +8563,19 @@
         <v>1645393</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1580198</v>
+        <v>1575851</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1719247</v>
+        <v>1716472</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2411167423076786</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2315630743486549</v>
+        <v>0.2309260736599237</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2519394385471164</v>
+        <v>0.2515326967505646</v>
       </c>
     </row>
     <row r="37">
@@ -8592,19 +8592,19 @@
         <v>532286</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>491800</v>
+        <v>490494</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>578440</v>
+        <v>578653</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1601231990084262</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1479441918862756</v>
+        <v>0.1475512491205739</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1740072595347237</v>
+        <v>0.1740714078130984</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>751</v>
@@ -8613,19 +8613,19 @@
         <v>815012</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>770456</v>
+        <v>768131</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>871731</v>
+        <v>872027</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2328723944888331</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2201416050123977</v>
+        <v>0.2194771766580173</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2490786497860583</v>
+        <v>0.2491634569322385</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1248</v>
@@ -8634,19 +8634,19 @@
         <v>1347298</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1276547</v>
+        <v>1283687</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1411989</v>
+        <v>1416152</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1974337598331413</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1870659431873418</v>
+        <v>0.1881121227513456</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2069135970345793</v>
+        <v>0.2075236310259997</v>
       </c>
     </row>
     <row r="38">
